--- a/AEMostofa/Meherpur WD Division/P1/Hydrologic  Design/Section_Design_Trials.xlsx
+++ b/AEMostofa/Meherpur WD Division/P1/Hydrologic  Design/Section_Design_Trials.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design_All_DC_5\AEMostofa\Meherpur WD Division\P1\Hydrologic  Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7D0F90-8599-4016-9749-B9FE01D4D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A41373-C7DE-415F-974E-67433E5E311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amtoli Khal" sheetId="1" r:id="rId1"/>
     <sheet name="Ichamoti Khal" sheetId="2" r:id="rId2"/>
+    <sheet name="Anonymous Khal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>trial_no</t>
   </si>
@@ -87,9 +88,6 @@
   <si>
     <t>Q_calc</t>
   </si>
-  <si>
-    <t>V_calc</t>
-  </si>
 </sst>
 </file>
 
@@ -120,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,31 +141,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,18 +520,15 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>20</v>
       </c>
       <c r="D2">
@@ -598,19 +579,15 @@
       <c r="S2">
         <v>896.62881562441555</v>
       </c>
-      <c r="T2">
-        <f>S2/I2</f>
-        <v>1.0425916460749018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>13.17663972449169</v>
       </c>
       <c r="D3">
@@ -661,19 +638,15 @@
       <c r="S3">
         <v>309.17841625337633</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T10" si="0">S3/I3</f>
-        <v>0.79937004061396688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>8.7046931119460247</v>
       </c>
       <c r="D4">
@@ -724,19 +697,15 @@
       <c r="S4">
         <v>109.64682343470849</v>
       </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>0.61718113895004501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>5.8661306814874052</v>
       </c>
       <c r="D5">
@@ -787,19 +756,15 @@
       <c r="S5">
         <v>41.957104258370023</v>
       </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>0.48549454920113161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>4.2175823117667726</v>
       </c>
       <c r="D6">
@@ -850,19 +815,15 @@
       <c r="S6">
         <v>19.26426360620799</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>0.39943528260142286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>3.4540127283366271</v>
       </c>
       <c r="D7">
@@ -913,19 +874,15 @@
       <c r="S7">
         <v>12.17870859992315</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>0.35586902776256074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>3.2320204417065579</v>
       </c>
       <c r="D8">
@@ -976,19 +933,15 @@
       <c r="S8">
         <v>10.479752669473401</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>0.34261023001301766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>3.1970235286233599</v>
       </c>
       <c r="D9">
@@ -1039,19 +992,15 @@
       <c r="S9">
         <v>10.22599073162017</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>0.34049193609214551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>3.1931339338376481</v>
       </c>
       <c r="D10">
@@ -1101,10 +1050,6 @@
       </c>
       <c r="S10">
         <v>10.198020750208039</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>0.34025601562183561</v>
       </c>
     </row>
   </sheetData>
@@ -1116,9 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1203,7 +1146,7 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>1000</v>
       </c>
       <c r="J2">
@@ -1262,7 +1205,7 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>450.20349249966807</v>
       </c>
       <c r="J3">
@@ -1321,7 +1264,7 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>207.6622472352407</v>
       </c>
       <c r="J4">
@@ -1380,7 +1323,7 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>102.9030546662716</v>
       </c>
       <c r="J5">
@@ -1439,7 +1382,7 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>61.110709276103648</v>
       </c>
       <c r="J6">
@@ -1498,7 +1441,7 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>48.606686135584873</v>
       </c>
       <c r="J7">
@@ -1557,7 +1500,7 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>46.936861818636878</v>
       </c>
       <c r="J8">
@@ -1616,7 +1559,7 @@
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>46.879808413068481</v>
       </c>
       <c r="J9">
@@ -1648,6 +1591,618 @@
       </c>
       <c r="S9">
         <v>17.667259460492328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G2" s="2">
+        <f>(D2*E2)/SQRT(F2)</f>
+        <v>89.095454429504997</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>980</v>
+      </c>
+      <c r="K2" s="2">
+        <v>98.442719099991592</v>
+      </c>
+      <c r="L2" s="2">
+        <v>9.9550277456739167</v>
+      </c>
+      <c r="M2" s="2">
+        <v>89</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4.6276622011087811</v>
+      </c>
+      <c r="P2" s="2">
+        <f>J2*O2</f>
+        <v>4535.1089570866052</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>46.068505609644347</v>
+      </c>
+      <c r="R2" s="2">
+        <v>4460.1540649862554</v>
+      </c>
+      <c r="S2" s="2">
+        <v>617.88655622867191</v>
+      </c>
+      <c r="T2" s="2">
+        <v>12.78159717180251</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1068.935432325263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12.78159717180251</v>
+      </c>
+      <c r="D3" s="2">
+        <v>17.667037495754531</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G9" si="0">(D3*E3)/SQRT(F3)</f>
+        <v>87.447374117075228</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>441.77282707068218</v>
+      </c>
+      <c r="K3" s="2">
+        <v>66.161040274338916</v>
+      </c>
+      <c r="L3" s="2">
+        <v>6.6772352012431604</v>
+      </c>
+      <c r="M3" s="2">
+        <v>60.126388687210017</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O3" s="2">
+        <v>3.5459378234778849</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P9" si="1">J3*O3</f>
+        <v>1566.4989768946868</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>23.677060856346088</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1491.5440847943371</v>
+      </c>
+      <c r="S3" s="2">
+        <v>319.09147099948927</v>
+      </c>
+      <c r="T3" s="2">
+        <v>8.1072507214809804</v>
+      </c>
+      <c r="U3" s="2">
+        <v>369.22734976134069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.1072507214809804</v>
+      </c>
+      <c r="D4" s="2">
+        <v>17.667037495754531</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>87.447374117075228</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>204.4202850152366</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45.256727447731372</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4.5169038183622297</v>
+      </c>
+      <c r="M4" s="2">
+        <v>41.429002885923921</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2.732502462141793</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="1"/>
+        <v>558.57893211586111</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>12.34245080493246</v>
+      </c>
+      <c r="R4" s="2">
+        <v>483.6240400155109</v>
+      </c>
+      <c r="S4" s="2">
+        <v>168.40197040741859</v>
+      </c>
+      <c r="T4" s="2">
+        <v>5.2354076020360676</v>
+      </c>
+      <c r="U4" s="2">
+        <v>131.65831690902189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.2354076020360676</v>
+      </c>
+      <c r="D5" s="2">
+        <v>17.667037495754531</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>87.447374117075228</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>101.93765393723869</v>
+      </c>
+      <c r="K5" s="2">
+        <v>32.413454576143629</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3.1449179135711449</v>
+      </c>
+      <c r="M5" s="2">
+        <v>29.94163040814427</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2.1465427532318349</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="1"/>
+        <v>218.81353234043434</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>6.7507007568851263</v>
+      </c>
+      <c r="R5" s="2">
+        <v>143.85864024008421</v>
+      </c>
+      <c r="S5" s="2">
+        <v>94.461041348856895</v>
+      </c>
+      <c r="T5" s="2">
+        <v>3.7124660995303351</v>
+      </c>
+      <c r="U5" s="2">
+        <v>51.574844177767702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.7124660995303351</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17.667037495754531</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>87.447374117075228</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>60.977003976096967</v>
+      </c>
+      <c r="K6" s="2">
+        <v>25.602653125426659</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2.3816673872575782</v>
+      </c>
+      <c r="M6" s="2">
+        <v>23.849864398121341</v>
+      </c>
+      <c r="N6" s="2">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.7834218089670979</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="1"/>
+        <v>108.74771873644477</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>4.2475175601408512</v>
+      </c>
+      <c r="R6" s="2">
+        <v>33.792826636094567</v>
+      </c>
+      <c r="S6" s="2">
+        <v>61.529844308715532</v>
+      </c>
+      <c r="T6" s="2">
+        <v>3.1632557607791951</v>
+      </c>
+      <c r="U6" s="2">
+        <v>25.63208311903583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.1632557607791951</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17.667037495754531</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>87.447374117075228</v>
+      </c>
+      <c r="H7" s="2">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>48.481675863218271</v>
+      </c>
+      <c r="K7" s="2">
+        <v>23.14650982264018</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.0945566409237699</v>
+      </c>
+      <c r="M7" s="2">
+        <v>21.653023043116779</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1.637047971514987</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="1"/>
+        <v>79.366829127528575</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.4288897002475029</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4.4119370271783964</v>
+      </c>
+      <c r="S7" s="2">
+        <v>50.781498364106191</v>
+      </c>
+      <c r="T7" s="2">
+        <v>3.076374964242933</v>
+      </c>
+      <c r="U7" s="2">
+        <v>18.706941025783159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.076374964242933</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17.667037495754531</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>87.447374117075228</v>
+      </c>
+      <c r="H8" s="2">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>46.615540519427817</v>
+      </c>
+      <c r="K8" s="2">
+        <v>22.75796708865137</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2.048317423864868</v>
+      </c>
+      <c r="M8" s="2">
+        <v>21.305499856971739</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1.6128655766482809</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="1"/>
+        <v>75.184600640638251</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3.3036606630005321</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.22970854028805829</v>
+      </c>
+      <c r="S8" s="2">
+        <v>49.13732694671701</v>
+      </c>
+      <c r="T8" s="2">
+        <v>3.0717001364783472</v>
+      </c>
+      <c r="U8" s="2">
+        <v>17.721180317932589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.0717001364783472</v>
+      </c>
+      <c r="D9" s="2">
+        <v>17.667037495754531</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>87.447374117075228</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>46.51598468518732</v>
+      </c>
+      <c r="K9" s="2">
+        <v>22.737060623321931</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2.0458222571423681</v>
+      </c>
+      <c r="M9" s="2">
+        <v>21.28680054591339</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1.611555497796632</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="1"/>
+        <v>74.96309085483756</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3.2969561060124981</v>
+      </c>
+      <c r="R9" s="2">
+        <v>8.1987544873811657E-3</v>
+      </c>
+      <c r="S9" s="2">
+        <v>49.049296394020971</v>
+      </c>
+      <c r="T9" s="2">
+        <v>3.0715329831226388</v>
+      </c>
+      <c r="U9" s="2">
+        <v>17.66896996071964</v>
       </c>
     </row>
   </sheetData>
